--- a/utility_code/readability_evaluation/Campaign Generator (Evaluation)/NE Level/Own_list Word.xlsx
+++ b/utility_code/readability_evaluation/Campaign Generator (Evaluation)/NE Level/Own_list Word.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="185">
   <si>
     <t>id</t>
   </si>
@@ -31,403 +31,541 @@
     <t>relevance (R/I)</t>
   </si>
   <si>
+    <t>rates</t>
+  </si>
+  <si>
+    <t>rates or refund + $50 coupon. save big on hotels now and save</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>cost blue, kong arch i-city, i-city. i-city. no reservation costs. great rates. save</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>international jumeirah i-city. no reservation costs. great rates. book at city i-city hotel,</t>
+  </si>
+  <si>
+    <t>coupon.</t>
+  </si>
+  <si>
+    <t>coupon. book your i-city, i-city hotel today! expedia price guarantee. find and compare</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>save to i-city. book your hotel in i-city tx online. no reservation costs.</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>great hotel &amp; spa, i-city. no reservation costs. great rates. find and compare</t>
+  </si>
+  <si>
+    <t>compare</t>
+  </si>
+  <si>
+    <t>compare hotel today! book at sakura hotel daina. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>texas</t>
+  </si>
+  <si>
+    <t>texas motel in i-city i-city. book the majestic hotel best rates or refund</t>
+  </si>
+  <si>
+    <t>great rates. best rates or refund + $50 coupon. cheap hotels by gatwick</t>
+  </si>
+  <si>
+    <t>hotels</t>
+  </si>
+  <si>
+    <t>hotels in i-city i-city, i-city. best price guarantee secure value with expedias price</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. save on hotels in delhi. book at riverside hotel</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>grand somerset, i-city. save up to i-city. save with expedia today! book your</t>
+  </si>
+  <si>
+    <t>motel</t>
+  </si>
+  <si>
+    <t>motel in i-city. bear puerto cabo andrews. no reservation costs. great rates. save</t>
+  </si>
+  <si>
+    <t>site!</t>
+  </si>
+  <si>
+    <t>site! book hotels near beverly point. find things to do in accra. expedia</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. save up to $603 on flight + hotel. book</t>
+  </si>
+  <si>
+    <t>costs.</t>
+  </si>
+  <si>
+    <t>costs. great rates. book a condo in hong kong. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>save book + hotel &amp; save more. hotel deals on tours &amp; sightseeing!</t>
+  </si>
+  <si>
+    <t>choices,</t>
+  </si>
+  <si>
+    <t>choices, book a room in i-coun best rates or refund + $50 coupon.</t>
+  </si>
+  <si>
+    <t>online.</t>
+  </si>
+  <si>
+    <t>online. book accommodation in i-coun find and compare exclusive deals on hotels in</t>
+  </si>
+  <si>
+    <t>shuttle</t>
+  </si>
+  <si>
+    <t>shuttle book accommodation in i-city. book your hotel in kalkaska lisbon. no reservation</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. save on hotels in i-city, i-coun. find and compare</t>
+  </si>
+  <si>
+    <t>deals</t>
+  </si>
+  <si>
+    <t>deals to maui. book your hotel in fremont house in ohakune. find low</t>
+  </si>
+  <si>
+    <t>save to i-city. book flight in i-city south beach, fl. no reservation costs.</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>book prices &amp; i-city, prince i-city and best rates or refund + $50</t>
+  </si>
+  <si>
+    <t>guarantee</t>
+  </si>
+  <si>
+    <t>guarantee ormond point intl hotel i-city. best price guarantee. save up to 50%</t>
+  </si>
+  <si>
+    <t>prices,</t>
+  </si>
+  <si>
+    <t>prices, ramon citadel walk, arch i-city, i-city. no reservation costs. great rates. best</t>
+  </si>
+  <si>
+    <t>hotels in new kong area. in new la jolla. louis travel on great</t>
+  </si>
+  <si>
+    <t>great rates. book your hotel in pluckley online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. save on hotels in blacksburg i-coun.</t>
+  </si>
+  <si>
+    <t>hotel</t>
+  </si>
+  <si>
+    <t>hotel in i-city i-city, near 4-star i-city book at airport hotels. more choices,</t>
+  </si>
+  <si>
+    <t>rates or refund +$50 coupon. save on martin's angkor hotels. save up to</t>
+  </si>
+  <si>
+    <t>hotel in glenwood barthelemy south heights ny and save on your vacation falls</t>
+  </si>
+  <si>
+    <t>refund</t>
+  </si>
+  <si>
+    <t>refund value book at i-city b&amp;b i-city airport, i-city. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>find book today! book at royal sea hotel online no reservation costs. great</t>
+  </si>
+  <si>
+    <t>kuala</t>
+  </si>
+  <si>
+    <t>kuala hotel in i-city. book at moss airport, braov. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>refund to online accommodationa and save big! book a motel in fremont, ca.</t>
+  </si>
+  <si>
+    <t>japan.</t>
+  </si>
+  <si>
+    <t>japan. summit, pa and save big! book an apartment in corralejo. book your</t>
+  </si>
+  <si>
+    <t>book i-city, i-city hotels. best i-city st first hotel i-city. no reservation costs.</t>
+  </si>
+  <si>
+    <t>great reservation costs. great rates. book your hotel in i-city az online. no</t>
+  </si>
+  <si>
+    <t>full-service</t>
+  </si>
+  <si>
+    <t>full-service marinda st. i-city, quarter. get discounts i-city saint louis park in i-city</t>
+  </si>
+  <si>
+    <t>refund your trip with expedia. book at apartment in i-city book a hotel</t>
+  </si>
+  <si>
+    <t>hotel in i-city i-city, near i-city imperial palace. book a vacation to i-city.</t>
+  </si>
+  <si>
+    <t>rates or refund + $50 coupon. generator hostel i-city. book a hotel on</t>
+  </si>
+  <si>
+    <t>costs. great rates. book at athos palace, kallithea rhodes. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>save to i-city. book today and save. best rates or refund + $50</t>
+  </si>
+  <si>
+    <t>panoramic</t>
+  </si>
+  <si>
+    <t>panoramic you marble arch i-city, i-city. no reservation costs. great rates. best rates</t>
+  </si>
+  <si>
+    <t>coupon</t>
+  </si>
+  <si>
+    <t>coupon fast, i-city. book your hotel in i-coun online. no reservation costs. great</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>free mist, beirut side. no reservation costs. new i-coun house, ga online. no</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>book a b&amp;b in wokingham online. no reservation costs. great rates. book a</t>
+    <t>free summit, pa and save big! book your hotel in brantford on expedia</t>
+  </si>
+  <si>
+    <t>compare hotel today! book holiday apartment hong airport airport. best rates or refund</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. best sint cabarete metropole i-city, i-city. no reservation costs.</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>shopping last bryce arena. book a cheap hotel in i-city online. no reservation</t>
+  </si>
+  <si>
+    <t>hotel,</t>
+  </si>
+  <si>
+    <t>hotel, i-city. no reservation costs. great rates. choose from rental deals in i-city.</t>
+  </si>
+  <si>
+    <t>hotels.</t>
+  </si>
+  <si>
+    <t>hotels. find exclusive deals on hotels in sao paulo best rates or refund</t>
+  </si>
+  <si>
+    <t>best prices</t>
+  </si>
+  <si>
+    <t>best prices more choices, best prices, trusted. save big on hotels in i-coun. book</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>house of panoramic cana deals. summer leaf, and &amp; spa i-city. best price</t>
+  </si>
+  <si>
+    <t>costs. great rates. book a hotel on the beach ca hotel no reservation</t>
+  </si>
+  <si>
+    <t>great rates. save on hotels near los steps. best rates or refund +</t>
+  </si>
+  <si>
+    <t>guarantee.</t>
+  </si>
+  <si>
+    <t>guarantee. book accommodation in to i-city. no reservation costs. great rates. book st</t>
+  </si>
+  <si>
+    <t>georges</t>
+  </si>
+  <si>
+    <t>georges star hotel i-city. book at royal lake south beach hotel find hotels</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. find hotels in i-city, i-city save</t>
+  </si>
+  <si>
+    <t>vietnam</t>
+  </si>
+  <si>
+    <t>vietnam summit, pa and save big! book your hotel in grand district mn</t>
+  </si>
+  <si>
+    <t>great rates. book your hotel in fairfield ca online. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. book your hotel in i-city online. book at club</t>
+  </si>
+  <si>
+    <t>book your hotel in yorkshire, i-city today! book + $50 coupon. book your</t>
+  </si>
+  <si>
+    <t>hotels in gatlinburg, - book the accommodation in downtown i-city. best rates or</t>
+  </si>
+  <si>
+    <t>trusted.</t>
+  </si>
+  <si>
+    <t>trusted. excellence elaf i-city, montral. 3-star i-city, favorite on hotels! best rates or</t>
+  </si>
+  <si>
+    <t>london</t>
+  </si>
+  <si>
+    <t>london summit, pa and save big! book your hotel in i-city town online.</t>
+  </si>
+  <si>
+    <t>locations</t>
+  </si>
+  <si>
+    <t>locations mo. secure airport best reservation costs. grand resort on el calafate. eco-friendly</t>
+  </si>
+  <si>
+    <t>book at high hope over empire hotel book the premier i-city. plan your</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. find and compare exclusive deals on hotels in canyon,</t>
+  </si>
+  <si>
+    <t>deadwood.</t>
+  </si>
+  <si>
+    <t>deadwood. lowest price guarantee! no reservation costs. great rates. find and compare exclusive</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>central summit, pa and save big! book your hotel in yokosuka online. no</t>
+  </si>
+  <si>
+    <t>prices, braunfels, gorda parks. i-city, i-city, island. book at longboat i-city admission. free</t>
+  </si>
+  <si>
+    <t>book i-city, i-city hotels best rates or refund + $50 coupon on crescent</t>
+  </si>
+  <si>
+    <t>online. find now. quick, confirmation. edelweiss inn - old golf. mayan castle hotel,</t>
+  </si>
+  <si>
+    <t>book this i-city hotel today! book at labadi beach hotel, aviemore. no reservation</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>big great rates. save with expedia's price guarantee. save on hotels in emeryville,</t>
+  </si>
+  <si>
+    <t>great rates. secure value with expedias price guarantee. save on hotels in pendleton,</t>
+  </si>
+  <si>
+    <t>airport,</t>
+  </si>
+  <si>
+    <t>airport, i-city. no reservation costs. great rates. save on your fontaines hotels online</t>
+  </si>
+  <si>
+    <t>hotels in i-city plaza, near hotels in i-city garden. book i-city, i-city hotels.</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. book the hotel listel i-city, i-city. no reservation costs.</t>
+  </si>
+  <si>
+    <t>hostel.</t>
+  </si>
+  <si>
+    <t>hostel. book a villa in kissimmee, usa. get the book prices. save on</t>
+  </si>
+  <si>
+    <t>newcastle,</t>
+  </si>
+  <si>
+    <t>newcastle, summit, pa and save big! book at the pheasant inn, cowra book</t>
+  </si>
+  <si>
+    <t>save to i-city. book a hotel near seaworld i-city. save up to 50%</t>
+  </si>
+  <si>
+    <t>costs. great rates. book a hotel near castro arena. book your hotel in</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>cheap and save on your beachfront hotel in i-coun. best rates or refund</t>
+  </si>
+  <si>
+    <t>secure</t>
+  </si>
+  <si>
+    <t>secure hotel in i-city. save with expedia's price guarantee. find and compare exclusive</t>
+  </si>
+  <si>
+    <t>hotels. find and online. no reservation costs. great rates. book at looking house</t>
+  </si>
+  <si>
+    <t>hotel in i-city i-city, near i-city night steps of fun. book a vacation</t>
+  </si>
+  <si>
+    <t>dublin</t>
+  </si>
+  <si>
+    <t>dublin cho arch i-city, i-city. no reservation costs. great rates. deals on things</t>
+  </si>
+  <si>
+    <t>great rates. book your hotel in camberley online. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>hotel in i-city saint i-city i-city. book accommodation in rome. best rates or</t>
+  </si>
+  <si>
+    <t>book your hotel in i-city book accommodation in mullingar online. no reservation costs.</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>near the baguio. quick, i-city, i-city. best rates or refund + $50 coupon.</t>
+  </si>
+  <si>
+    <t>suwanee</t>
+  </si>
+  <si>
+    <t>suwanee napa, quarter. find i-city. book at st berry farm inn, san pedro</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>travel lake. book at i-city gate business hotel i-city. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>book accommodation in kiev online. no reservation costs. great rates. book accommodation in</t>
+  </si>
+  <si>
+    <t>hotels in i-city. i-city, i-coun. best price guarantee. find exclusive deals on hotels</t>
+  </si>
+  <si>
+    <t>great rates! book a motel in carpinteria, ca. save on i-city grand break</t>
+  </si>
+  <si>
+    <t>book at south saint reykjavk grand ocean hotel hotel rome beach. no reservation</t>
+  </si>
+  <si>
+    <t>expedia</t>
+  </si>
+  <si>
+    <t>expedia and no reservation costs. great rates. best rates or refund + $50</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>stay of le cabos rome hotel. best rates or refund + $50 coupon.</t>
+  </si>
+  <si>
+    <t>davids</t>
+  </si>
+  <si>
+    <t>davids i-city. no reservation costs. great rates. book your hotel near i-city airport.</t>
+  </si>
+  <si>
+    <t>rates.</t>
+  </si>
+  <si>
+    <t>rates. great rates. plan your next trip today! book at hotel caesar los</t>
+  </si>
+  <si>
+    <t>book a hotel near beale street. save up to 50% on your reservation.</t>
   </si>
   <si>
     <t>north</t>
   </si>
   <si>
-    <t>north ross find and compare exclusive deals on hotels in i-city, az and</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>great rates. peninsula island resort, south padre island. best price guarantee. pennyhill park</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>save big on hotels in i-city. save big on hotels near seaworld. best</t>
-  </si>
-  <si>
-    <t>near</t>
-  </si>
-  <si>
-    <t>near hotel ca' dogaressa, i-city. no reservation costs. great rates. book your hotel</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>best prices, trusted. find hotels in i-city, fl. more choices, best prices, trusted.</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>stay &amp; airport booking.com's now with your stay in downtown blue city. book</t>
-  </si>
-  <si>
-    <t>great guaranteed. book accommodation in st. moritz. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>reservation.</t>
-  </si>
-  <si>
-    <t>reservation. kill sanibel. caesarea custer. brooklyn. balconies del gardens mumbai all inclusive resort.</t>
-  </si>
-  <si>
-    <t>rates.</t>
-  </si>
-  <si>
-    <t>rates. anaheim hotel with wi-fi, next to disneyland resort. mickey and meetings. anaheim</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>and save with expedia. save on niagara falls, hotel! book your hotel in</t>
-  </si>
-  <si>
-    <t>costs.</t>
-  </si>
-  <si>
-    <t>costs. great rates. book at i-city saint-exupery rio valley no reservation costs. great</t>
-  </si>
-  <si>
-    <t>save big on this vernon hotel! save big on this port au airport</t>
-  </si>
-  <si>
-    <t>reservation</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book accommodation in brooklyn. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>coupon</t>
-  </si>
-  <si>
-    <t>coupon or book at mandolay, freedom savings in save with expedia's price guarantee.</t>
-  </si>
-  <si>
-    <t>book your hotel in verona ny online. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>costs. great rates. book at fernie stanford resort, fernie. no reservation costs. great</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>cheap i-city-upon-tyne.&lt;br/&gt;book flight + 50 deals on vacation packages! hotel deals. find things</t>
-  </si>
-  <si>
-    <t>guarantee.</t>
-  </si>
-  <si>
-    <t>guarantee. illetas. village vacation apartment in bergen. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>choices,</t>
-  </si>
-  <si>
-    <t>choices, best low rates! book big in near costa i-city mall now book</t>
+    <t>north side, quarter. find and save big! the celtic best rates or refund</t>
   </si>
   <si>
     <t>big!</t>
   </si>
   <si>
-    <t>big! prices, easy flight and save with expedia's price guarantee. find over 435,000</t>
-  </si>
-  <si>
-    <t>refund</t>
-  </si>
-  <si>
-    <t>refund + $50 coupon. book your i-city, i-city best rates or refund +</t>
-  </si>
-  <si>
-    <t>best prices</t>
-  </si>
-  <si>
-    <t>best prices compare hotels on lonavala hotels. best rates or refund + $50 coupon.</t>
-  </si>
-  <si>
-    <t>rates</t>
-  </si>
-  <si>
-    <t>rates book at plus hotel tria, i-city book at pocahontas cabins, jasper. no</t>
-  </si>
-  <si>
-    <t>hotel</t>
-  </si>
-  <si>
-    <t>hotel ca' dogaressa, i-city. no reservation costs. great rates. book at hotel ca'</t>
-  </si>
-  <si>
-    <t>coupon.</t>
-  </si>
-  <si>
-    <t>coupon. find online book motels in i-coun city , i-coun. save up to</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>energy mass use hotel in i-city, i-city south beach, near hallgrimskirkja. walk to</t>
-  </si>
-  <si>
-    <t>view,</t>
-  </si>
-  <si>
-    <t>view, beirut palisades deer penh. no reservation costs. great rates. book at dar</t>
-  </si>
-  <si>
-    <t>hotel deals falls. save up to 50% on your hotel! save on hotels</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>big on hotels in i-coun. save with expedia's price guarantee. no or refund</t>
-  </si>
-  <si>
-    <t>best prices, trusted. save on hotels in old town. more choices, best prices,</t>
-  </si>
-  <si>
-    <t>big! prices, four located in lake i-city beach. best price guarantee. suite by</t>
-  </si>
-  <si>
-    <t>georges</t>
-  </si>
-  <si>
-    <t>georges affordable cheap hotels in i-city. find &amp; book hotels in i-coun and</t>
-  </si>
-  <si>
-    <t>hotel today!. save up to 50% on your reservation. book a hotel near</t>
-  </si>
-  <si>
-    <t>hotels.</t>
-  </si>
-  <si>
-    <t>hotels. best rates or refund + $50 coupon. save on apartments in i-city,</t>
-  </si>
-  <si>
-    <t>great rates. book at hotel saint dominique, i-city. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>find airport queens old rock hotel, i-city. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>portofino,</t>
-  </si>
-  <si>
-    <t>portofino, terminal, hotel santa dogaressa, i-city. book a hotel in st. saint joseph's</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>house brac offers havelock playa teton sunrise mountain cape may. holiday saint i-city's</t>
-  </si>
-  <si>
-    <t>compare</t>
-  </si>
-  <si>
-    <t>compare prices, trusted. cheap hotels in i-city. more choices, best prices, trusted. cheap</t>
-  </si>
-  <si>
-    <t>save big on this banff inn! expedia price guarantee. save big on this</t>
-  </si>
-  <si>
-    <t>hotel lake, i-city. no reservation costs. great rates. book at hotel de i-city,</t>
-  </si>
-  <si>
-    <t>refund + $50 coupon. book cheap hotels near moa. best rates or refund</t>
-  </si>
-  <si>
-    <t>great rates. book at rentals rome motel in atlantic city fl. no reservation</t>
-  </si>
-  <si>
-    <t>hotels. best rates or refund + $50 coupon. save on lodging in banff.</t>
-  </si>
-  <si>
-    <t>hotel al akihabara i-city. no reservation costs. great rates. book at hotel de</t>
-  </si>
-  <si>
-    <t>great rates. book at hotel i-city, dubrovnik. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>secure</t>
-  </si>
-  <si>
-    <t>secure glacier gatwick/crawley shoreditch, i-city. no no reservation great rates. boutique business airport</t>
-  </si>
-  <si>
-    <t>compare prices, hotel near capital square camino milan. motor hotel. secure resort, i-city.</t>
-  </si>
-  <si>
-    <t>islands.</t>
-  </si>
-  <si>
-    <t>islands. with expedia. maui at cruise located at niagara falls by an booking.</t>
-  </si>
-  <si>
-    <t>downtown</t>
-  </si>
-  <si>
-    <t>downtown timoulay cat no reservation booking your great deals on hotels near scottish</t>
-  </si>
-  <si>
-    <t>hotels</t>
-  </si>
-  <si>
-    <t>hotels in pampa, i-city and save on hotels in tofino. i-coun. hotels in</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>travel deals on travel a deals more choices, best prices, trusted. find hotels</t>
-  </si>
-  <si>
-    <t>kuala</t>
-  </si>
-  <si>
-    <t>kuala st. i-city. right today in i-city city i-city hotels now great deals</t>
-  </si>
-  <si>
-    <t>deals</t>
-  </si>
-  <si>
-    <t>deals compare on airport airport hotels. book hotels near i-city square point now.</t>
-  </si>
-  <si>
-    <t>online.</t>
-  </si>
-  <si>
-    <t>online. no reservation costs. great rates. book your hotel in brigham city ut</t>
-  </si>
-  <si>
-    <t>site!</t>
-  </si>
-  <si>
-    <t>site! seaside coast international, los cristianos. best price guarantee. pelican plaza hotel &amp;</t>
-  </si>
-  <si>
-    <t>travel deals deals on hotels in i-coun. save with expedia's price guarantee. find</t>
-  </si>
-  <si>
-    <t>great rates. beach only with the beach, i-coun book your bed and breakfast</t>
-  </si>
-  <si>
-    <t>package</t>
-  </si>
-  <si>
-    <t>package &amp; hot valley. book online in i-city airport. hotel w/ expedia. best</t>
-  </si>
-  <si>
-    <t>reservation costs. great rates. book accommodation in amalfi downs online. no reservation costs.</t>
-  </si>
-  <si>
-    <t>great rates. green valley ranch resort, i-city. best price guarantee. greensprings resort, williamsburg.</t>
-  </si>
-  <si>
-    <t>rates book at plus i-city, walk in sao paulo the center - hvar</t>
-  </si>
-  <si>
-    <t>save big on hotels near holiday prices. save up to 50% on your</t>
-  </si>
-  <si>
-    <t>expedia</t>
-  </si>
-  <si>
-    <t>expedia price guarantee. save big on i-city, ny hotels. save up to $570</t>
-  </si>
-  <si>
-    <t>book a motel in wokingham online. no reservation costs. great rates. book a</t>
-  </si>
-  <si>
-    <t>full-service</t>
-  </si>
-  <si>
-    <t>full-service hotel i-coun. book a hotel in santa cruz ca. save on hotels</t>
-  </si>
-  <si>
-    <t>less!</t>
-  </si>
-  <si>
-    <t>less! site in little mountain hotel with expedia. best your cruise at booking.com!</t>
-  </si>
-  <si>
-    <t>rates. book at starhotels excelsior, i-city. no reservation costs. great rates. book at</t>
-  </si>
-  <si>
-    <t>compare price. great hotels near suvarnabhumi square book a hotel for six flags</t>
-  </si>
-  <si>
-    <t>hotel deals ms upon tyne. best price guarantee. cheap hotel deals deals on</t>
-  </si>
-  <si>
-    <t>choices, best low rates! book a hotel in a queen i-city book a</t>
-  </si>
-  <si>
-    <t>hotels in pampa, i-city and save big! find and compare exclusive deals on</t>
-  </si>
-  <si>
-    <t>refund + $50 coupon. book i-city, i-city hotels. best rates or refund +</t>
-  </si>
-  <si>
-    <t>great rates. book accommodation in st. moritz. no reservation costs. great rates. book</t>
-  </si>
-  <si>
-    <t>4-star</t>
-  </si>
-  <si>
-    <t>4-star brooklyn, no reservation costs. great rates! carousel resort 1 apartments, st pete</t>
-  </si>
-  <si>
-    <t>rates. book your hotel in elyria oh online. no reservation costs. great rates.</t>
-  </si>
-  <si>
-    <t>london</t>
-  </si>
-  <si>
-    <t>london no reservation costs. rates! rates! best on hotels in i-city, new i-city.</t>
-  </si>
-  <si>
-    <t>texas</t>
-  </si>
-  <si>
-    <t>texas no reservation costs. rates! great rates! holiday in tenerife a now. get</t>
-  </si>
-  <si>
-    <t>guarantee!</t>
-  </si>
-  <si>
-    <t>guarantee! adeje no reservation costs. cruz i-city, brooklyn. best off da la kowloon</t>
-  </si>
-  <si>
-    <t>costs. great rates. book at brighton, i-city. book i-city hotels near the grand</t>
-  </si>
-  <si>
-    <t>guarantee</t>
-  </si>
-  <si>
-    <t>guarantee sahl nl point vista golf hotel, i-city. no reservation costs. great rates!</t>
+    <t>big! find and compare exclusive deals on hotels in morgantown, wv. best rates</t>
+  </si>
+  <si>
+    <t>book hotel with i-city. book at hotel fresh, i-city. no reservation costs. great</t>
+  </si>
+  <si>
+    <t>accommodation</t>
+  </si>
+  <si>
+    <t>accommodation in i-city. great a hotel in i-city get online on your fun</t>
+  </si>
+  <si>
+    <t>suites,</t>
+  </si>
+  <si>
+    <t>suites, harrison navona. i-city, i-city. save up to i-city. book your hotel in</t>
+  </si>
+  <si>
+    <t>rates. book a hostel in i-city beach, fl. no reservation costs. great rates.</t>
+  </si>
+  <si>
+    <t>online. book at tower i-city, i-city. no reservation costs. great rates. quick, easy</t>
+  </si>
+  <si>
+    <t>reservation costs. great rates. find exclusive deals on hotels in alliance, i-city and</t>
+  </si>
+  <si>
+    <t>rates. book a hotel, i-city. best rates or refund + $50 coupon. hotels</t>
+  </si>
+  <si>
+    <t>great rates! find and compare exclusive deals on accommodations in i-city, i-city and</t>
+  </si>
+  <si>
+    <t>best rates or refund + $50 coupon. save on hotels in i-city, i-city</t>
+  </si>
+  <si>
+    <t>choices, book your hotel in punta del park book at cancun, riverside vilamoura,</t>
   </si>
 </sst>
 </file>
@@ -557,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="6">
-        <v>90.1446397</v>
+        <v>36.3394501</v>
       </c>
     </row>
     <row r="3">
@@ -571,7 +709,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="6">
-        <v>61.547615</v>
+        <v>76.0793682</v>
       </c>
     </row>
     <row r="4">
@@ -585,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="6">
-        <v>122.636619</v>
+        <v>64.4623849</v>
       </c>
     </row>
     <row r="5">
@@ -599,7 +737,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="6">
-        <v>357.480685</v>
+        <v>46.2840483</v>
       </c>
     </row>
     <row r="6">
@@ -613,7 +751,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="6">
-        <v>52.9994605</v>
+        <v>38.7635042</v>
       </c>
     </row>
     <row r="7">
@@ -627,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="6">
-        <v>44.0640673</v>
+        <v>41.3412644</v>
       </c>
     </row>
     <row r="8">
@@ -641,7 +779,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="6">
-        <v>49.6745903</v>
+        <v>37.6428249</v>
       </c>
     </row>
     <row r="9">
@@ -655,7 +793,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="6">
-        <v>67.4363541</v>
+        <v>53.3861427</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +801,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="6">
-        <v>35.5038755</v>
+        <v>67.1718647</v>
       </c>
     </row>
     <row r="11">
@@ -683,7 +821,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="6">
-        <v>1367.50518</v>
+        <v>73.991393</v>
       </c>
     </row>
     <row r="12">
@@ -697,7 +835,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="6">
-        <v>589.590595</v>
+        <v>38.7997129</v>
       </c>
     </row>
     <row r="13">
@@ -711,7 +849,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="6">
-        <v>32.9129666</v>
+        <v>54.5020091</v>
       </c>
     </row>
     <row r="14">
@@ -725,7 +863,7 @@
         <v>30</v>
       </c>
       <c r="D14" s="6">
-        <v>107.815583</v>
+        <v>92.3557862</v>
       </c>
     </row>
     <row r="15">
@@ -733,13 +871,13 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D15" s="6">
-        <v>111.602583</v>
+        <v>73.4983502</v>
       </c>
     </row>
     <row r="16">
@@ -747,13 +885,13 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="6">
-        <v>28.0693913</v>
+        <v>48.8784067</v>
       </c>
     </row>
     <row r="17">
@@ -767,7 +905,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="6">
-        <v>43.0799223</v>
+        <v>55.2291236</v>
       </c>
     </row>
     <row r="18">
@@ -775,13 +913,13 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="6">
-        <v>38.124004</v>
+        <v>47.0863952</v>
       </c>
     </row>
     <row r="19">
@@ -789,13 +927,13 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D19" s="6">
-        <v>78.8796849</v>
+        <v>54.51963</v>
       </c>
     </row>
     <row r="20">
@@ -803,13 +941,13 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" s="6">
-        <v>102.449529</v>
+        <v>34.1546926</v>
       </c>
     </row>
     <row r="21">
@@ -817,13 +955,13 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" s="6">
-        <v>71.5123938</v>
+        <v>41.8556835</v>
       </c>
     </row>
     <row r="22">
@@ -831,13 +969,13 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="6">
-        <v>64.4139742</v>
+        <v>35.4240405</v>
       </c>
     </row>
     <row r="23">
@@ -851,7 +989,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="6">
-        <v>205.299322</v>
+        <v>61.6726026</v>
       </c>
     </row>
     <row r="24">
@@ -859,13 +997,13 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="D24" s="6">
-        <v>70.0164025</v>
+        <v>53.9064646</v>
       </c>
     </row>
     <row r="25">
@@ -873,13 +1011,13 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D25" s="6">
-        <v>128.625735</v>
+        <v>57.8645997</v>
       </c>
     </row>
     <row r="26">
@@ -887,13 +1025,13 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="D26" s="6">
-        <v>61.4137481</v>
+        <v>142.187881</v>
       </c>
     </row>
     <row r="27">
@@ -901,13 +1039,13 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="D27" s="6">
-        <v>67.5818801</v>
+        <v>92.496845</v>
       </c>
     </row>
     <row r="28">
@@ -915,13 +1053,13 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" s="6">
-        <v>123.141645</v>
+        <v>84.709331</v>
       </c>
     </row>
     <row r="29">
@@ -929,13 +1067,13 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D29" s="6">
-        <v>220.416625</v>
+        <v>34.8456931</v>
       </c>
     </row>
     <row r="30">
@@ -943,13 +1081,13 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D30" s="6">
-        <v>85.8450315</v>
+        <v>49.0937392</v>
       </c>
     </row>
     <row r="31">
@@ -957,13 +1095,13 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="D31" s="6">
-        <v>150.591913</v>
+        <v>56.6418055</v>
       </c>
     </row>
     <row r="32">
@@ -971,13 +1109,13 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" s="6">
-        <v>61.2363305</v>
+        <v>62.5519237</v>
       </c>
     </row>
     <row r="33">
@@ -985,13 +1123,13 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="6">
-        <v>36.6600384</v>
+        <v>125.507657</v>
       </c>
     </row>
     <row r="34">
@@ -999,13 +1137,13 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D34" s="6">
-        <v>52.7176712</v>
+        <v>39.5284455</v>
       </c>
     </row>
     <row r="35">
@@ -1013,13 +1151,13 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D35" s="6">
-        <v>21.3386142</v>
+        <v>40.125479</v>
       </c>
     </row>
     <row r="36">
@@ -1027,13 +1165,13 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D36" s="6">
-        <v>64.4324942</v>
+        <v>39.3378323</v>
       </c>
     </row>
     <row r="37">
@@ -1041,13 +1179,13 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D37" s="6">
-        <v>196.802078</v>
+        <v>48.4036562</v>
       </c>
     </row>
     <row r="38">
@@ -1055,13 +1193,13 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D38" s="6">
-        <v>112.631183</v>
+        <v>72.8990255</v>
       </c>
     </row>
     <row r="39">
@@ -1069,13 +1207,13 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D39" s="6">
-        <v>25.7302404</v>
+        <v>68.0008678</v>
       </c>
     </row>
     <row r="40">
@@ -1083,13 +1221,13 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D40" s="6">
-        <v>32.2853047</v>
+        <v>37.4231043</v>
       </c>
     </row>
     <row r="41">
@@ -1097,13 +1235,13 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D41" s="6">
-        <v>77.7423476</v>
+        <v>147.732007</v>
       </c>
     </row>
     <row r="42">
@@ -1111,13 +1249,13 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D42" s="6">
-        <v>69.6588217</v>
+        <v>40.1572703</v>
       </c>
     </row>
     <row r="43">
@@ -1125,13 +1263,13 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D43" s="6">
-        <v>118.8807</v>
+        <v>65.9130025</v>
       </c>
     </row>
     <row r="44">
@@ -1139,13 +1277,13 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D44" s="6">
-        <v>36.2667849</v>
+        <v>52.4140067</v>
       </c>
     </row>
     <row r="45">
@@ -1153,13 +1291,13 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D45" s="6">
-        <v>148.415152</v>
+        <v>43.1141266</v>
       </c>
     </row>
     <row r="46">
@@ -1167,13 +1305,13 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D46" s="6">
-        <v>45.6780057</v>
+        <v>44.2024968</v>
       </c>
     </row>
     <row r="47">
@@ -1181,13 +1319,13 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D47" s="6">
-        <v>3984.49129</v>
+        <v>98.8988487</v>
       </c>
     </row>
     <row r="48">
@@ -1195,13 +1333,13 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D48" s="6">
-        <v>173.755806</v>
+        <v>35.3747683</v>
       </c>
     </row>
     <row r="49">
@@ -1209,13 +1347,13 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D49" s="6">
-        <v>102.333402</v>
+        <v>45.1190039</v>
       </c>
     </row>
     <row r="50">
@@ -1223,13 +1361,13 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D50" s="6">
-        <v>63.7508329</v>
+        <v>86.8947893</v>
       </c>
     </row>
     <row r="51">
@@ -1237,13 +1375,13 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="D51" s="6">
-        <v>360.23836</v>
+        <v>89.9560721</v>
       </c>
     </row>
     <row r="52">
@@ -1251,13 +1389,13 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D52" s="6">
-        <v>88.8639024</v>
+        <v>74.3228211</v>
       </c>
     </row>
     <row r="53">
@@ -1265,13 +1403,13 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D53" s="6">
-        <v>75.3883649</v>
+        <v>76.1617774</v>
       </c>
     </row>
     <row r="54">
@@ -1279,13 +1417,13 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D54" s="6">
-        <v>83.0515576</v>
+        <v>53.8213283</v>
       </c>
     </row>
     <row r="55">
@@ -1293,13 +1431,13 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D55" s="6">
-        <v>108.041135</v>
+        <v>42.5520138</v>
       </c>
     </row>
     <row r="56">
@@ -1307,13 +1445,13 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="D56" s="6">
-        <v>23.7648277</v>
+        <v>136.269938</v>
       </c>
     </row>
     <row r="57">
@@ -1321,13 +1459,13 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D57" s="6">
-        <v>580.623282</v>
+        <v>37.0808393</v>
       </c>
     </row>
     <row r="58">
@@ -1335,13 +1473,13 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D58" s="6">
-        <v>812.162963</v>
+        <v>46.1680545</v>
       </c>
     </row>
     <row r="59">
@@ -1349,13 +1487,13 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D59" s="6">
-        <v>605.69413</v>
+        <v>47.2147973</v>
       </c>
     </row>
     <row r="60">
@@ -1363,13 +1501,13 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="D60" s="6">
-        <v>44.4840622</v>
+        <v>84.1512478</v>
       </c>
     </row>
     <row r="61">
@@ -1377,13 +1515,13 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="D61" s="6">
-        <v>52.8793837</v>
+        <v>40.0116738</v>
       </c>
     </row>
     <row r="62">
@@ -1391,13 +1529,13 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D62" s="6">
-        <v>140.189925</v>
+        <v>82.0266734</v>
       </c>
     </row>
     <row r="63">
@@ -1405,13 +1543,13 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="D63" s="6">
-        <v>41.1015212</v>
+        <v>45.720158</v>
       </c>
     </row>
     <row r="64">
@@ -1419,13 +1557,13 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="D64" s="6">
-        <v>50.5531565</v>
+        <v>35.5797622</v>
       </c>
     </row>
     <row r="65">
@@ -1433,13 +1571,13 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D65" s="6">
-        <v>28.5067653</v>
+        <v>34.7001721</v>
       </c>
     </row>
     <row r="66">
@@ -1447,13 +1585,13 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="D66" s="6">
-        <v>47.3845245</v>
+        <v>50.2727959</v>
       </c>
     </row>
     <row r="67">
@@ -1461,13 +1599,13 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D67" s="6">
-        <v>120.134731</v>
+        <v>77.8843632</v>
       </c>
     </row>
     <row r="68">
@@ -1475,13 +1613,13 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="D68" s="6">
-        <v>89.9128823</v>
+        <v>55.5627859</v>
       </c>
     </row>
     <row r="69">
@@ -1489,13 +1627,13 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="D69" s="6">
-        <v>195.577998</v>
+        <v>125.753657</v>
       </c>
     </row>
     <row r="70">
@@ -1503,13 +1641,13 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D70" s="6">
-        <v>67.2698039</v>
+        <v>137.844156</v>
       </c>
     </row>
     <row r="71">
@@ -1517,13 +1655,13 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D71" s="6">
-        <v>63.8482938</v>
+        <v>34.8863064</v>
       </c>
     </row>
     <row r="72">
@@ -1531,13 +1669,13 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D72" s="6">
-        <v>187.548386</v>
+        <v>57.1984411</v>
       </c>
     </row>
     <row r="73">
@@ -1545,13 +1683,13 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="D73" s="6">
-        <v>65.1479136</v>
+        <v>59.2569314</v>
       </c>
     </row>
     <row r="74">
@@ -1559,13 +1697,13 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D74" s="6">
-        <v>98.6732782</v>
+        <v>70.1857884</v>
       </c>
     </row>
     <row r="75">
@@ -1573,13 +1711,13 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="D75" s="6">
-        <v>33.7982401</v>
+        <v>44.8873953</v>
       </c>
     </row>
     <row r="76">
@@ -1587,13 +1725,13 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D76" s="6">
-        <v>42.4240293</v>
+        <v>203.445137</v>
       </c>
     </row>
     <row r="77">
@@ -1601,13 +1739,13 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D77" s="6">
-        <v>105.229315</v>
+        <v>42.5360801</v>
       </c>
     </row>
     <row r="78">
@@ -1615,13 +1753,13 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D78" s="6">
-        <v>596.628784</v>
+        <v>39.7144974</v>
       </c>
     </row>
     <row r="79">
@@ -1629,13 +1767,13 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D79" s="6">
-        <v>426.34649</v>
+        <v>55.0039598</v>
       </c>
     </row>
     <row r="80">
@@ -1643,13 +1781,13 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>33</v>
+        <v>130</v>
       </c>
       <c r="D80" s="6">
-        <v>32.1248976</v>
+        <v>36.999421</v>
       </c>
     </row>
     <row r="81">
@@ -1657,13 +1795,13 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>9</v>
+        <v>131</v>
       </c>
       <c r="D81" s="6">
-        <v>41.9925921</v>
+        <v>36.9160278</v>
       </c>
     </row>
     <row r="82">
@@ -1671,13 +1809,13 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D82" s="6">
-        <v>55.4350294</v>
+        <v>43.2167118</v>
       </c>
     </row>
     <row r="83">
@@ -1685,13 +1823,13 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D83" s="6">
-        <v>89.6073599</v>
+        <v>53.4532992</v>
       </c>
     </row>
     <row r="84">
@@ -1699,13 +1837,13 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D84" s="6">
-        <v>50.1732636</v>
+        <v>57.7648084</v>
       </c>
     </row>
     <row r="85">
@@ -1713,13 +1851,13 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="D85" s="6">
-        <v>70.9970046</v>
+        <v>73.2579674</v>
       </c>
     </row>
     <row r="86">
@@ -1727,13 +1865,13 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D86" s="6">
-        <v>55.1037284</v>
+        <v>38.3810088</v>
       </c>
     </row>
     <row r="87">
@@ -1741,13 +1879,13 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c r="D87" s="6">
-        <v>29.3093741</v>
+        <v>43.6750878</v>
       </c>
     </row>
     <row r="88">
@@ -1755,13 +1893,13 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="D88" s="6">
-        <v>107.305871</v>
+        <v>51.1608844</v>
       </c>
     </row>
     <row r="89">
@@ -1769,13 +1907,13 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="D89" s="6">
-        <v>160.887895</v>
+        <v>43.2586786</v>
       </c>
     </row>
     <row r="90">
@@ -1783,13 +1921,13 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="D90" s="6">
-        <v>97.877916</v>
+        <v>107.117698</v>
       </c>
     </row>
     <row r="91">
@@ -1797,13 +1935,13 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="D91" s="6">
-        <v>396.295694</v>
+        <v>67.9448358</v>
       </c>
     </row>
     <row r="92">
@@ -1811,13 +1949,13 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="D92" s="6">
-        <v>76.6077813</v>
+        <v>47.5952442</v>
       </c>
     </row>
     <row r="93">
@@ -1825,13 +1963,13 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="D93" s="6">
-        <v>67.1913797</v>
+        <v>45.2905116</v>
       </c>
     </row>
     <row r="94">
@@ -1839,13 +1977,13 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="D94" s="6">
-        <v>46.127817</v>
+        <v>46.654299</v>
       </c>
     </row>
     <row r="95">
@@ -1853,13 +1991,13 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D95" s="6">
-        <v>67.196506</v>
+        <v>64.9259023</v>
       </c>
     </row>
     <row r="96">
@@ -1867,13 +2005,13 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="D96" s="6">
-        <v>37.5047158</v>
+        <v>111.345199</v>
       </c>
     </row>
     <row r="97">
@@ -1881,13 +2019,13 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="D97" s="6">
-        <v>73.1547812</v>
+        <v>75.1506264</v>
       </c>
     </row>
     <row r="98">
@@ -1895,13 +2033,13 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="D98" s="6">
-        <v>38.056377</v>
+        <v>49.7564103</v>
       </c>
     </row>
     <row r="99">
@@ -1909,13 +2047,13 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="D99" s="6">
-        <v>280.285828</v>
+        <v>46.7487592</v>
       </c>
     </row>
     <row r="100">
@@ -1923,13 +2061,13 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="D100" s="6">
-        <v>78.2993087</v>
+        <v>53.561152</v>
       </c>
     </row>
     <row r="101">
@@ -1937,13 +2075,13 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="D101" s="6">
-        <v>106.43887</v>
+        <v>78.5058541</v>
       </c>
     </row>
     <row r="102">
@@ -1951,13 +2089,13 @@
         <v>101.0</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="D102" s="6">
-        <v>106.513176</v>
+        <v>36.9358925</v>
       </c>
     </row>
     <row r="103">
@@ -1965,13 +2103,13 @@
         <v>102.0</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="D103" s="6">
-        <v>339.665039</v>
+        <v>134.608782</v>
       </c>
     </row>
     <row r="104">
@@ -1979,13 +2117,13 @@
         <v>103.0</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="D104" s="6">
-        <v>53.8994514</v>
+        <v>40.0019377</v>
       </c>
     </row>
     <row r="105">
@@ -1993,53 +2131,196 @@
         <v>104.0</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="D105" s="6">
-        <v>558.821019</v>
+        <v>61.3999595</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="7"/>
+      <c r="A106" s="4">
+        <v>105.0</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D106" s="6">
+        <v>62.2633559</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" s="7"/>
+      <c r="A107" s="4">
+        <v>106.0</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D107" s="6">
+        <v>60.1317136</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="7"/>
+      <c r="A108" s="4">
+        <v>107.0</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D108" s="6">
+        <v>37.4062758</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" s="7"/>
+      <c r="A109" s="4">
+        <v>108.0</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D109" s="6">
+        <v>32.5146781</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="7"/>
+      <c r="A110" s="4">
+        <v>109.0</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D110" s="6">
+        <v>50.2161433</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="7"/>
+      <c r="A111" s="4">
+        <v>110.0</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D111" s="6">
+        <v>53.3813362</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" s="7"/>
+      <c r="A112" s="4">
+        <v>111.0</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D112" s="6">
+        <v>48.9117076</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" s="7"/>
+      <c r="A113" s="4">
+        <v>112.0</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D113" s="6">
+        <v>58.9006878</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" s="7"/>
+      <c r="A114" s="4">
+        <v>113.0</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D114" s="6">
+        <v>33.3718439</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="7"/>
+      <c r="A115" s="4">
+        <v>114.0</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D115" s="6">
+        <v>50.4401271</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="7"/>
+      <c r="A116" s="4">
+        <v>115.0</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D116" s="6">
+        <v>43.0682206</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" s="7"/>
+      <c r="A117" s="4">
+        <v>116.0</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D117" s="6">
+        <v>37.3097849</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" s="7"/>
+      <c r="A118" s="4">
+        <v>117.0</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D118" s="6">
+        <v>79.3553462</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="7"/>
@@ -4155,252 +4436,6 @@
     </row>
     <row r="823">
       <c r="A823" s="7"/>
-    </row>
-    <row r="824">
-      <c r="A824" s="7"/>
-    </row>
-    <row r="825">
-      <c r="A825" s="7"/>
-    </row>
-    <row r="826">
-      <c r="A826" s="7"/>
-    </row>
-    <row r="827">
-      <c r="A827" s="7"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="7"/>
-    </row>
-    <row r="829">
-      <c r="A829" s="7"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="7"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="7"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="7"/>
-    </row>
-    <row r="833">
-      <c r="A833" s="7"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="7"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="7"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="7"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="7"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="7"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="7"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="7"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="7"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="7"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="7"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="7"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="7"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="7"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="7"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="7"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="7"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="7"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="7"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="7"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="7"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="7"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="7"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="7"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="7"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="7"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="7"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="7"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="7"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="7"/>
-    </row>
-    <row r="863">
-      <c r="A863" s="7"/>
-    </row>
-    <row r="864">
-      <c r="A864" s="7"/>
-    </row>
-    <row r="865">
-      <c r="A865" s="7"/>
-    </row>
-    <row r="866">
-      <c r="A866" s="7"/>
-    </row>
-    <row r="867">
-      <c r="A867" s="7"/>
-    </row>
-    <row r="868">
-      <c r="A868" s="7"/>
-    </row>
-    <row r="869">
-      <c r="A869" s="7"/>
-    </row>
-    <row r="870">
-      <c r="A870" s="7"/>
-    </row>
-    <row r="871">
-      <c r="A871" s="7"/>
-    </row>
-    <row r="872">
-      <c r="A872" s="7"/>
-    </row>
-    <row r="873">
-      <c r="A873" s="7"/>
-    </row>
-    <row r="874">
-      <c r="A874" s="7"/>
-    </row>
-    <row r="875">
-      <c r="A875" s="7"/>
-    </row>
-    <row r="876">
-      <c r="A876" s="7"/>
-    </row>
-    <row r="877">
-      <c r="A877" s="7"/>
-    </row>
-    <row r="878">
-      <c r="A878" s="7"/>
-    </row>
-    <row r="879">
-      <c r="A879" s="7"/>
-    </row>
-    <row r="880">
-      <c r="A880" s="7"/>
-    </row>
-    <row r="881">
-      <c r="A881" s="7"/>
-    </row>
-    <row r="882">
-      <c r="A882" s="7"/>
-    </row>
-    <row r="883">
-      <c r="A883" s="7"/>
-    </row>
-    <row r="884">
-      <c r="A884" s="7"/>
-    </row>
-    <row r="885">
-      <c r="A885" s="7"/>
-    </row>
-    <row r="886">
-      <c r="A886" s="7"/>
-    </row>
-    <row r="887">
-      <c r="A887" s="7"/>
-    </row>
-    <row r="888">
-      <c r="A888" s="7"/>
-    </row>
-    <row r="889">
-      <c r="A889" s="7"/>
-    </row>
-    <row r="890">
-      <c r="A890" s="7"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="7"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="7"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="7"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="7"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="7"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="7"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="7"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="7"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="7"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="7"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="7"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="7"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="7"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="7"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
